--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -732,15 +732,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>5112</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>7567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>348343</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>119743</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -750,7 +750,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10520712" y="5846392"/>
+          <a:off x="10520712" y="7827592"/>
           <a:ext cx="343231" cy="112176"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
@@ -1246,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR12" sqref="AR12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z84" sqref="Z84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -978,6 +978,71 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6426</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>351956</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123356</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Richtungspfeil 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4184288" y="1284574"/>
+          <a:ext cx="345530" cy="113161"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1246,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z84" sqref="Z84"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1427,7 +1492,7 @@
     </row>
     <row r="4" spans="1:44" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="17"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="19"/>
@@ -1518,8 +1583,8 @@
     </row>
     <row r="6" spans="1:44" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
       <c r="F6" s="17"/>
@@ -1609,8 +1674,7 @@
       <c r="A8" s="13"/>
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
+      <c r="D8" s="21"/>
       <c r="F8" s="17"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -1697,7 +1761,7 @@
       <c r="A10" s="13"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="D10"/>
       <c r="E10" s="19"/>
       <c r="F10" s="17"/>
       <c r="G10" s="18"/>
@@ -1828,8 +1892,8 @@
     </row>
     <row r="13" spans="1:44" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="18"/>
       <c r="E13" s="19"/>
       <c r="F13" s="17"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -980,16 +980,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6426</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6425</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>10195</xdr:rowOff>
+      <xdr:rowOff>18477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>351956</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123356</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>351955</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -998,7 +998,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4184288" y="1284574"/>
+          <a:off x="4545295" y="1293999"/>
           <a:ext cx="345530" cy="113161"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
@@ -1311,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1983,7 +1983,7 @@
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="17"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -1312,7 +1312,7 @@
   <dimension ref="A1:AR79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -975,6 +975,71 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11395</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>8124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>120871</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Richtungspfeil 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5593045" y="2922774"/>
+          <a:ext cx="345530" cy="112747"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1246,8 +1311,8 @@
   </sheetPr>
   <dimension ref="A1:AR79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1701,7 +1766,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -2187,8 +2252,8 @@
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
@@ -2276,7 +2341,7 @@
       <c r="E23"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="H23"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -1311,9 +1311,7 @@
   </sheetPr>
   <dimension ref="A1:AR79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -978,15 +978,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>11395</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>8124</xdr:rowOff>
+      <xdr:colOff>3113</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>124080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>4500</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352370</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>120871</xdr:rowOff>
+      <xdr:rowOff>112588</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -995,8 +995,73 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5593045" y="2922774"/>
-          <a:ext cx="345530" cy="112747"/>
+          <a:off x="5610439" y="2931884"/>
+          <a:ext cx="349257" cy="112747"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>18850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11955</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>120042</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Richtungspfeil 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5982328" y="3601947"/>
+          <a:ext cx="349257" cy="112747"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1311,7 +1376,9 @@
   </sheetPr>
   <dimension ref="A1:AR79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL29" sqref="AL29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2473,7 +2540,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -292,6 +292,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -299,15 +308,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1362,7 +1362,7 @@
   <dimension ref="A1:AR79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1373,77 +1373,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="16">
         <v>43913</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="13">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="16">
         <v>43914</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="13">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="16">
         <v>43915</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="13">
+      <c r="K1" s="17"/>
+      <c r="L1" s="16">
         <v>43917</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="13">
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="16">
         <v>43920</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="13">
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="16">
         <v>43921</v>
       </c>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="13">
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="16">
         <v>43922</v>
       </c>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="13">
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="16">
         <v>43924</v>
       </c>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="13">
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="16">
         <v>43927</v>
       </c>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="13">
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="16">
         <v>43928</v>
       </c>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="13">
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="16">
         <v>43929</v>
       </c>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="15"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="18"/>
       <c r="AQ1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
@@ -1492,7 +1492,7 @@
       </c>
     </row>
     <row r="3" spans="1:44" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8"/>
@@ -1541,7 +1541,7 @@
       </c>
     </row>
     <row r="4" spans="1:44" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="11"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1584,7 +1584,7 @@
       <c r="AO4" s="10"/>
     </row>
     <row r="5" spans="1:44" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10"/>
@@ -1632,7 +1632,7 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="10"/>
@@ -1678,7 +1678,7 @@
       </c>
     </row>
     <row r="7" spans="1:44" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="10"/>
@@ -1723,7 +1723,7 @@
       <c r="AO7" s="10"/>
     </row>
     <row r="8" spans="1:44" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
@@ -1766,7 +1766,7 @@
       <c r="AO8" s="10"/>
     </row>
     <row r="9" spans="1:44" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="10"/>
@@ -1811,7 +1811,7 @@
       <c r="AO9" s="10"/>
     </row>
     <row r="10" spans="1:44" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
@@ -1899,7 +1899,7 @@
       <c r="AO11" s="12"/>
     </row>
     <row r="12" spans="1:44" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="8"/>
@@ -1944,7 +1944,7 @@
       <c r="AO12" s="10"/>
     </row>
     <row r="13" spans="1:44" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="10"/>
@@ -1987,7 +1987,7 @@
       <c r="AO13" s="10"/>
     </row>
     <row r="14" spans="1:44" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="10"/>
@@ -2032,7 +2032,7 @@
       <c r="AO14" s="10"/>
     </row>
     <row r="15" spans="1:44" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -2075,7 +2075,7 @@
       <c r="AO15" s="10"/>
     </row>
     <row r="16" spans="1:44" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="10"/>
@@ -2120,7 +2120,7 @@
       <c r="AO16" s="10"/>
     </row>
     <row r="17" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17"/>
@@ -2163,7 +2163,7 @@
       <c r="AO17" s="10"/>
     </row>
     <row r="18" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="10"/>
@@ -2208,7 +2208,7 @@
       <c r="AO18" s="10"/>
     </row>
     <row r="19" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -2251,7 +2251,7 @@
       <c r="AO19" s="10"/>
     </row>
     <row r="20" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="10"/>
@@ -2296,7 +2296,7 @@
       <c r="AO20" s="10"/>
     </row>
     <row r="21" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -2339,7 +2339,7 @@
       <c r="AO21" s="10"/>
     </row>
     <row r="22" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="10"/>
@@ -2384,7 +2384,7 @@
       <c r="AO22" s="10"/>
     </row>
     <row r="23" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -2472,7 +2472,7 @@
       <c r="AO24" s="12"/>
     </row>
     <row r="25" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="10"/>
@@ -2517,7 +2517,7 @@
       <c r="AO25" s="10"/>
     </row>
     <row r="26" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -2560,7 +2560,7 @@
       <c r="AO26" s="10"/>
     </row>
     <row r="27" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="10"/>
@@ -2605,7 +2605,7 @@
       <c r="AO27" s="10"/>
     </row>
     <row r="28" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -2693,7 +2693,7 @@
       <c r="AO29" s="12"/>
     </row>
     <row r="30" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="10"/>
@@ -2738,7 +2738,7 @@
       <c r="AO30" s="10"/>
     </row>
     <row r="31" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -2781,7 +2781,7 @@
       <c r="AO31" s="10"/>
     </row>
     <row r="32" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="10"/>
@@ -2826,7 +2826,7 @@
       <c r="AO32" s="10"/>
     </row>
     <row r="33" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -2869,7 +2869,7 @@
       <c r="AO33" s="10"/>
     </row>
     <row r="34" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="10"/>
@@ -2914,7 +2914,7 @@
       <c r="AO34" s="10"/>
     </row>
     <row r="35" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -2957,7 +2957,7 @@
       <c r="AO35" s="10"/>
     </row>
     <row r="36" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="10"/>
@@ -3002,7 +3002,7 @@
       <c r="AO36" s="10"/>
     </row>
     <row r="37" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -3045,7 +3045,7 @@
       <c r="AO37" s="10"/>
     </row>
     <row r="38" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="10"/>
@@ -3090,7 +3090,7 @@
       <c r="AO38" s="10"/>
     </row>
     <row r="39" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -3133,7 +3133,7 @@
       <c r="AO39" s="10"/>
     </row>
     <row r="40" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="10"/>
@@ -3178,7 +3178,7 @@
       <c r="AO40" s="10"/>
     </row>
     <row r="41" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -3221,7 +3221,7 @@
       <c r="AO41" s="10"/>
     </row>
     <row r="42" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B42" s="10"/>
@@ -3266,7 +3266,7 @@
       <c r="AO42" s="10"/>
     </row>
     <row r="43" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -3309,7 +3309,7 @@
       <c r="AO43" s="10"/>
     </row>
     <row r="44" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="10"/>
@@ -3354,7 +3354,7 @@
       <c r="AO44" s="10"/>
     </row>
     <row r="45" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -3397,7 +3397,7 @@
       <c r="AO45" s="10"/>
     </row>
     <row r="46" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B46" s="10"/>
@@ -3442,7 +3442,7 @@
       <c r="AO46" s="10"/>
     </row>
     <row r="47" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -3485,7 +3485,7 @@
       <c r="AO47" s="10"/>
     </row>
     <row r="48" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="10"/>
@@ -3530,7 +3530,7 @@
       <c r="AO48" s="10"/>
     </row>
     <row r="49" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -3573,7 +3573,7 @@
       <c r="AO49" s="10"/>
     </row>
     <row r="50" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B50" s="10"/>
@@ -3618,7 +3618,7 @@
       <c r="AO50" s="10"/>
     </row>
     <row r="51" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -3661,7 +3661,7 @@
       <c r="AO51" s="10"/>
     </row>
     <row r="52" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B52" s="10"/>
@@ -3706,7 +3706,7 @@
       <c r="AO52" s="10"/>
     </row>
     <row r="53" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -3749,7 +3749,7 @@
       <c r="AO53" s="10"/>
     </row>
     <row r="54" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B54" s="10"/>
@@ -3794,7 +3794,7 @@
       <c r="AO54" s="10"/>
     </row>
     <row r="55" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -3837,7 +3837,7 @@
       <c r="AO55" s="10"/>
     </row>
     <row r="56" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B56" s="10"/>
@@ -3882,7 +3882,7 @@
       <c r="AO56" s="10"/>
     </row>
     <row r="57" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -3925,7 +3925,7 @@
       <c r="AO57" s="10"/>
     </row>
     <row r="58" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B58" s="10"/>
@@ -3970,7 +3970,7 @@
       <c r="AO58" s="10"/>
     </row>
     <row r="59" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -4013,7 +4013,7 @@
       <c r="AO59" s="10"/>
     </row>
     <row r="60" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B60" s="10"/>
@@ -4058,7 +4058,7 @@
       <c r="AO60" s="10"/>
     </row>
     <row r="61" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -4101,7 +4101,7 @@
       <c r="AO61" s="10"/>
     </row>
     <row r="62" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B62" s="10"/>
@@ -4146,7 +4146,7 @@
       <c r="AO62" s="10"/>
     </row>
     <row r="63" spans="1:41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -4234,7 +4234,7 @@
       <c r="AO64" s="12"/>
     </row>
     <row r="65" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B65" s="10"/>
@@ -4279,7 +4279,7 @@
       <c r="AO65" s="10"/>
     </row>
     <row r="66" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -4322,7 +4322,7 @@
       <c r="AO66" s="10"/>
     </row>
     <row r="67" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B67" s="10"/>
@@ -4367,7 +4367,7 @@
       <c r="AO67" s="10"/>
     </row>
     <row r="68" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -4410,7 +4410,7 @@
       <c r="AO68" s="10"/>
     </row>
     <row r="69" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B69" s="10"/>
@@ -4455,7 +4455,7 @@
       <c r="AO69" s="10"/>
     </row>
     <row r="70" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="18"/>
+      <c r="A70" s="15"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -4543,7 +4543,7 @@
       <c r="AO71" s="12"/>
     </row>
     <row r="72" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B72" s="10"/>
@@ -4588,7 +4588,7 @@
       <c r="AO72" s="10"/>
     </row>
     <row r="73" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
+      <c r="A73" s="15"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -4631,7 +4631,7 @@
       <c r="AO73" s="10"/>
     </row>
     <row r="74" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B74" s="10"/>
@@ -4676,7 +4676,7 @@
       <c r="AO74" s="10"/>
     </row>
     <row r="75" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="18"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -4719,7 +4719,7 @@
       <c r="AO75" s="10"/>
     </row>
     <row r="76" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B76" s="10"/>
@@ -4764,7 +4764,7 @@
       <c r="AO76" s="10"/>
     </row>
     <row r="77" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="18"/>
+      <c r="A77" s="15"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -4807,7 +4807,7 @@
       <c r="AO77" s="10"/>
     </row>
     <row r="78" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B78" s="10"/>
@@ -4853,7 +4853,7 @@
       <c r="AP78" s="5"/>
     </row>
     <row r="79" spans="1:42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="18"/>
+      <c r="A79" s="15"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -4897,22 +4897,25 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
@@ -4925,25 +4928,22 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="74" orientation="landscape" horizontalDpi="300" r:id="rId1"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -1362,7 +1362,7 @@
   <dimension ref="A1:AR79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -1361,8 +1361,8 @@
   </sheetPr>
   <dimension ref="A1:AR79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2747,8 +2747,8 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
